--- a/output/fit_clients/fit_round_302.xlsx
+++ b/output/fit_clients/fit_round_302.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2001925262.537488</v>
+        <v>1860232619.280213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08419797411960107</v>
+        <v>0.1047038143638049</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03559065663151762</v>
+        <v>0.04414694049381491</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1000962627.172852</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1828713603.51431</v>
+        <v>2397386134.915168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15977579128989</v>
+        <v>0.1747892815412239</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03302099076496118</v>
+        <v>0.04097438517943846</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>914356815.2875388</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3237507320.652172</v>
+        <v>4216319730.457276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1218551574905157</v>
+        <v>0.1003064280781318</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03260362792375945</v>
+        <v>0.03828782919125398</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>109</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1618753620.488742</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3776131671.193415</v>
+        <v>3704212503.133208</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06827125087511299</v>
+        <v>0.09383359376600056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0386228139745704</v>
+        <v>0.03963650687438653</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1888065854.107766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2361843607.221175</v>
+        <v>2320975496.268724</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1373070319963724</v>
+        <v>0.09658750501508187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05141428452118579</v>
+        <v>0.05024024285161802</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1180921794.049394</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3125475730.38045</v>
+        <v>2956801833.519608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09822591731702565</v>
+        <v>0.09106481739780682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04834747527842656</v>
+        <v>0.03467840517988056</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1562737818.061162</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2963728877.499774</v>
+        <v>3819682837.841633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2021203946209823</v>
+        <v>0.1800509421789107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02032403702960444</v>
+        <v>0.0218016041517277</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1481864492.558375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1994520923.036645</v>
+        <v>1569061693.546185</v>
       </c>
       <c r="F9" t="n">
-        <v>0.188349176668424</v>
+        <v>0.145078170820587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02692896796110057</v>
+        <v>0.02489167654076144</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>997260488.8975796</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3695613456.877407</v>
+        <v>5633578785.997814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1807420428786189</v>
+        <v>0.1725770188653324</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05319294341592504</v>
+        <v>0.04188616832652587</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>127</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1847806726.791519</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3274347175.719475</v>
+        <v>3117274202.972352</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1544970470208855</v>
+        <v>0.1734165187540578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03005878880252088</v>
+        <v>0.04151145508694019</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>125</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1637173549.93967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3275222720.667022</v>
+        <v>2439482271.258443</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1450733980518401</v>
+        <v>0.128690497481656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0456324450545397</v>
+        <v>0.03996122266966241</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>103</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1637611403.552676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5243929906.990109</v>
+        <v>4774825215.761002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08988927386117525</v>
+        <v>0.0614546650100865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02695970492390948</v>
+        <v>0.02429312755410108</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>101</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2621964945.249375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3549434649.904551</v>
+        <v>3837078948.644758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162832323863704</v>
+        <v>0.1642543488195393</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03746916171209148</v>
+        <v>0.03252755573200757</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>98</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1774717319.605886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1309008566.491214</v>
+        <v>1262072841.835272</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07602299090795403</v>
+        <v>0.06788214335197347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04142327543596662</v>
+        <v>0.04834726433146833</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>654504325.4455452</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1837477267.753386</v>
+        <v>2666702014.467408</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1049928032680419</v>
+        <v>0.07374087937417144</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04952826210429978</v>
+        <v>0.0458014405657047</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>918738723.8909277</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4365606959.768128</v>
+        <v>3771572936.253524</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1461966943603757</v>
+        <v>0.1596065007117987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03915808438992199</v>
+        <v>0.03476003184211138</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2182803496.422898</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3198821182.557861</v>
+        <v>2594369402.227712</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1185659048635204</v>
+        <v>0.1210706114327546</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03049938889309683</v>
+        <v>0.02667553775880967</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>99</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1599410607.146669</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1109104197.297068</v>
+        <v>916813664.9755445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1768337415695364</v>
+        <v>0.1255408353651905</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02250047241583602</v>
+        <v>0.02338184988065817</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>554552154.427449</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2166304115.618683</v>
+        <v>1764367294.808744</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1587735514017925</v>
+        <v>0.1503047548177515</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02437205797815399</v>
+        <v>0.02965205862075352</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1083152066.442203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2104715010.909954</v>
+        <v>2609761246.081001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1017150782114823</v>
+        <v>0.06524051079016248</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0361669209306469</v>
+        <v>0.03537860939361858</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1052357531.404749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3649795301.794205</v>
+        <v>3041749365.718199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09582935116029036</v>
+        <v>0.1080051521719355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03566936040736365</v>
+        <v>0.04512919216557455</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1824897673.519045</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1196430410.513772</v>
+        <v>976671521.4851521</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1311486379254616</v>
+        <v>0.1722736569862185</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03733205929665755</v>
+        <v>0.04327073167489582</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>598215242.3493786</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2915841423.464859</v>
+        <v>2506664739.649854</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1245083989830199</v>
+        <v>0.1392914555402745</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03145709042242511</v>
+        <v>0.03734301923711246</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1457920752.639298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1222827882.806165</v>
+        <v>1288058117.780825</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09289110320664283</v>
+        <v>0.07525758648150724</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02671246191612674</v>
+        <v>0.02762261477770686</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>611413954.1183695</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1094271790.680771</v>
+        <v>1239369454.250502</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1050932962783497</v>
+        <v>0.08632701889176791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03078303066655703</v>
+        <v>0.02981463835904919</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>547135890.5053153</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2875903432.451942</v>
+        <v>2933088603.301031</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1555191017285896</v>
+        <v>0.1217192522039219</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02449293975128571</v>
+        <v>0.022010093251331</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1437951782.241271</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3857442107.924436</v>
+        <v>2511968902.646972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1511517171059986</v>
+        <v>0.1013663961554977</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04968997803977381</v>
+        <v>0.03940577363421082</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1928721139.611498</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5634388774.758022</v>
+        <v>5193140290.238939</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09285359790618605</v>
+        <v>0.1148680264365052</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03129506065335341</v>
+        <v>0.04430093320687745</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>133</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2817194291.029367</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1600135914.355827</v>
+        <v>1890166979.318762</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08533188450163916</v>
+        <v>0.1140151495048955</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02573757114033381</v>
+        <v>0.03847396990696372</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>800067949.0839198</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1289679930.751522</v>
+        <v>1362443520.731105</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08705282144249901</v>
+        <v>0.1124034539381377</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03361555358897307</v>
+        <v>0.03911895751731508</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>644839895.7314922</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1716725856.367778</v>
+        <v>1861471486.158362</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08916876231472473</v>
+        <v>0.1120145171294661</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02381956533427085</v>
+        <v>0.03685234954519809</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>858363041.4003917</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1894649275.53224</v>
+        <v>2412251994.886123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.143636804608153</v>
+        <v>0.168713087537564</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05092568048905208</v>
+        <v>0.0429063763436437</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>947324727.5196422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1500955639.349267</v>
+        <v>1535447031.69884</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09672001904372661</v>
+        <v>0.1007011249167507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02262018481016641</v>
+        <v>0.0184686420813646</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>750477775.358796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>887523207.4101533</v>
+        <v>999268809.6680602</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08280657353971888</v>
+        <v>0.08014936574812831</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03596644444527883</v>
+        <v>0.03184903191146363</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>443761646.9628598</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3182359419.301374</v>
+        <v>2331122212.518271</v>
       </c>
       <c r="F36" t="n">
-        <v>0.109663434414648</v>
+        <v>0.1283322053777539</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02712422631137619</v>
+        <v>0.02528955413015982</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1591179676.937956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2890706845.156783</v>
+        <v>2271208911.053349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.104544124335148</v>
+        <v>0.09343634466068829</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02839727236482045</v>
+        <v>0.02849145733027917</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1445353572.367422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1549207694.234991</v>
+        <v>1870679530.837466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125545414153721</v>
+        <v>0.09126483857565103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02987637638244173</v>
+        <v>0.02838477572334884</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>774603889.4212629</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1422356612.114112</v>
+        <v>1613846776.726832</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1820768966016712</v>
+        <v>0.1532384438616963</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0264028562157127</v>
+        <v>0.02792435152881387</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>711178388.2769305</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1799110904.154598</v>
+        <v>1676064331.731711</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1109867270597348</v>
+        <v>0.1609075583699609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0536037601173146</v>
+        <v>0.04866848768703279</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>899555343.4094461</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2492582836.054164</v>
+        <v>2305559542.311857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1092846658481059</v>
+        <v>0.1484546464951594</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04670526546947448</v>
+        <v>0.04434797694360249</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1246291444.080053</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3247904243.387317</v>
+        <v>4244158041.90517</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0942587914582772</v>
+        <v>0.08337948682627508</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04061136347278472</v>
+        <v>0.03055401957362363</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1623952099.192588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1981979458.365147</v>
+        <v>2238015710.210441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1420663302130512</v>
+        <v>0.2017205687966744</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02173245076826003</v>
+        <v>0.02219853259878049</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>990989829.9438235</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1901039531.920656</v>
+        <v>1964850300.791947</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06529985518204935</v>
+        <v>0.0637648818768999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03137468536127327</v>
+        <v>0.0344737242319231</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>950519852.5467731</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2514507996.915789</v>
+        <v>2218303063.262152</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1297055195852813</v>
+        <v>0.1254866158877662</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05570384889180851</v>
+        <v>0.03496533660506183</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1257254041.171562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3680190824.434339</v>
+        <v>4895157679.255224</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1331945150662333</v>
+        <v>0.1229207423015451</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04288976915651894</v>
+        <v>0.04311890383940852</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>107</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1840095363.431287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3310966861.060582</v>
+        <v>4035123851.98764</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1784795535660798</v>
+        <v>0.1961982468760794</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04559964045276901</v>
+        <v>0.0415201981578428</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1655483390.607829</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4487426922.361099</v>
+        <v>2941110964.936406</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06741852466000485</v>
+        <v>0.06834191417468408</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02798320695505221</v>
+        <v>0.03893418258867099</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2243713467.208181</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1807010822.837659</v>
+        <v>1542435092.953098</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1732105224572764</v>
+        <v>0.1673464895276006</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04132580062048666</v>
+        <v>0.03840791806896795</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>903505395.7214438</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3968795783.533015</v>
+        <v>3881304966.676623</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1232002544302345</v>
+        <v>0.1265021762554043</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04847365722401013</v>
+        <v>0.04544969261748843</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>103</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1984397882.693072</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1185653760.85958</v>
+        <v>1095734742.618356</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1636922723299765</v>
+        <v>0.138063492035745</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03865336644507586</v>
+        <v>0.04469176093161193</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>592826934.3079991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4185213341.601581</v>
+        <v>3447256623.885467</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1310907289428592</v>
+        <v>0.1351856998873357</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0520364548066161</v>
+        <v>0.06015843127602915</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>124</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2092606716.378749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2673540163.417078</v>
+        <v>2838452469.77631</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1500278643569338</v>
+        <v>0.2000408132182601</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03046463365141913</v>
+        <v>0.02728614592570869</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1336770136.705059</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3004172757.407938</v>
+        <v>4652898876.494041</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1196726077094081</v>
+        <v>0.155343712460889</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03537310444249982</v>
+        <v>0.03598943033173013</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>98</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1502086364.575073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3588884927.395895</v>
+        <v>3931893767.467144</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2237680369249553</v>
+        <v>0.1946914813937768</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02123670692991321</v>
+        <v>0.03106096181607803</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>89</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1794442420.489243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1535079109.667553</v>
+        <v>1306881362.839036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1050431486761216</v>
+        <v>0.1198225414606334</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05485342196019909</v>
+        <v>0.05156100902582891</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>767539591.8921592</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3650323861.269553</v>
+        <v>3865445707.420457</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1504526482560396</v>
+        <v>0.1570462170616649</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02455037391241598</v>
+        <v>0.02258737461890312</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1825161989.645307</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1609209500.259812</v>
+        <v>1569075478.12317</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1817245865126997</v>
+        <v>0.1547288194494775</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02575155954985926</v>
+        <v>0.03103174981912334</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>804604771.293065</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4577852463.510616</v>
+        <v>3635972360.316748</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1086662628495491</v>
+        <v>0.1186096030437889</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04207772166539309</v>
+        <v>0.04519496264390004</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>84</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2288926179.840794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3260487814.067586</v>
+        <v>3174883923.912341</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1290323641352058</v>
+        <v>0.1542167546683915</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02672017982642999</v>
+        <v>0.02658917398210398</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1630244004.709445</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2126643423.714687</v>
+        <v>2667577825.915851</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1491056145766514</v>
+        <v>0.1122468727756066</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02975971282173551</v>
+        <v>0.01995961243767743</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>104</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1063321774.688045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1684881148.756296</v>
+        <v>1283408923.974874</v>
       </c>
       <c r="F62" t="n">
-        <v>0.137225151973598</v>
+        <v>0.1798852952319172</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04281301446120602</v>
+        <v>0.03356074439173849</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>842440585.1441742</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4939499665.185303</v>
+        <v>3558811733.928316</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09529536931049416</v>
+        <v>0.09203955669579507</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04095109503519691</v>
+        <v>0.04082327836028842</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2469749853.075551</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4522620361.239975</v>
+        <v>4439291997.583429</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1723052347079226</v>
+        <v>0.1618820492566318</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03093041498211395</v>
+        <v>0.02294401003303533</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>94</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2261310253.233608</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4504104133.269476</v>
+        <v>4693296340.360011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1100529203495299</v>
+        <v>0.122449417605461</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02417698630557241</v>
+        <v>0.0301222634931235</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>108</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2252052055.136063</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4979457559.936513</v>
+        <v>4206806668.997911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1023857509935711</v>
+        <v>0.1342412521456666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03778729381182541</v>
+        <v>0.04938919670847328</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>88</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2489728806.013752</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2753622673.407323</v>
+        <v>2819802362.286752</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06816627109693819</v>
+        <v>0.06490284427683847</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05074343131783428</v>
+        <v>0.03771891088467764</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>97</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1376811375.795618</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3838824774.295489</v>
+        <v>5426475585.888135</v>
       </c>
       <c r="F68" t="n">
-        <v>0.125230593879374</v>
+        <v>0.09988672041365405</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04708264417831277</v>
+        <v>0.03114965218337002</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1919412373.177901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2135720727.389781</v>
+        <v>2187678828.120784</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1638556015915358</v>
+        <v>0.1574015976343445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05755576604649201</v>
+        <v>0.04450469431923051</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1067860386.19979</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2409993414.000278</v>
+        <v>3638641955.680352</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08442613298132659</v>
+        <v>0.07953471718149013</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04322712931989584</v>
+        <v>0.03478469118727252</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1204996645.55343</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3510408216.906729</v>
+        <v>4483502624.726411</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1815653675456439</v>
+        <v>0.1530219804163769</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02365870549083722</v>
+        <v>0.02552383104117329</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1755204102.93943</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1835006720.007534</v>
+        <v>2273422725.073487</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1042108286401438</v>
+        <v>0.07243809856249561</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04609943036896511</v>
+        <v>0.04985159166406331</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>917503332.9789784</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3303076613.734472</v>
+        <v>2188456444.566275</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07987837976238212</v>
+        <v>0.08743225464191993</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03224020038121846</v>
+        <v>0.0335445810181124</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>115</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1651538275.094234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2738688466.700584</v>
+        <v>2631103410.297006</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1278889909494112</v>
+        <v>0.1234426113269773</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03054860888602248</v>
+        <v>0.02872373397374998</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>103</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1369344321.337721</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1944900392.163559</v>
+        <v>1974571154.848205</v>
       </c>
       <c r="F75" t="n">
-        <v>0.120463032210279</v>
+        <v>0.1436131611703828</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03488057578690353</v>
+        <v>0.0332316090239179</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>972450165.4024661</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4761120144.980208</v>
+        <v>4172995388.742744</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1157992125265299</v>
+        <v>0.1000753018417424</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03236622690784524</v>
+        <v>0.02251010714751773</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>75</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2380560089.092864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1404166869.732038</v>
+        <v>2284356653.051413</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1531155834834952</v>
+        <v>0.1163756387447</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02627349297071324</v>
+        <v>0.02776394278781093</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>702083408.3627774</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3907984166.660884</v>
+        <v>4371796148.047793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08489802875763462</v>
+        <v>0.09809553567334987</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05331117524911619</v>
+        <v>0.03963646476867346</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>105</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1953992055.626049</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1673262482.482027</v>
+        <v>1586406873.339753</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1338236878123689</v>
+        <v>0.169200759578273</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02578818093712994</v>
+        <v>0.03110051689060463</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>836631305.7745938</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4664276237.565991</v>
+        <v>5618269778.445897</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09350246863018971</v>
+        <v>0.09580015974027574</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03378764917288654</v>
+        <v>0.03744099897910199</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2332138151.281453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4645009846.163975</v>
+        <v>5123642744.315408</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1114112028798622</v>
+        <v>0.1134120413854131</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02181081859336407</v>
+        <v>0.02362298173157849</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>70</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2322504910.239047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3715721931.453399</v>
+        <v>4656693354.414957</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1668909197992009</v>
+        <v>0.1406359160642453</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02757913769724531</v>
+        <v>0.02125735037046672</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1857861021.365105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2110891379.202711</v>
+        <v>2458879330.856824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1049533479790142</v>
+        <v>0.1373310700198655</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04218967232526082</v>
+        <v>0.04327785978376258</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1055445688.736094</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1778593403.514202</v>
+        <v>1937186644.377211</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09623300987019026</v>
+        <v>0.07499270059268336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0436726726082835</v>
+        <v>0.03704703093992311</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>889296739.1781076</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3263321207.315567</v>
+        <v>3258148179.867956</v>
       </c>
       <c r="F85" t="n">
-        <v>0.144532762409681</v>
+        <v>0.1436525277803373</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03744763923365095</v>
+        <v>0.05344111254645965</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>114</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1631660692.865817</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2112330773.982237</v>
+        <v>1699869476.308748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1435558001262035</v>
+        <v>0.1172368155510483</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02675481164225687</v>
+        <v>0.02474204033450413</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1056165430.223032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1311677667.549099</v>
+        <v>1076062216.498997</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1799923474138632</v>
+        <v>0.1878917963110164</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04309223852567497</v>
+        <v>0.03053277741796276</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>655838917.9976898</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2395129537.279327</v>
+        <v>2626330817.026505</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1187267792402081</v>
+        <v>0.1626574134949731</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03960503208419579</v>
+        <v>0.0345492725957366</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>120</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1197564739.301055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3046079509.432332</v>
+        <v>2689644535.215913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1350949622675242</v>
+        <v>0.1402880514706519</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04154477867967492</v>
+        <v>0.02865351977800742</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1523039789.440841</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1341771624.58051</v>
+        <v>1918941200.612474</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1172918106042454</v>
+        <v>0.128269465109218</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03491037830128942</v>
+        <v>0.05053902760129013</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>670885762.0933094</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1548772280.612629</v>
+        <v>1926821291.857329</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1636603136556588</v>
+        <v>0.1862182634713997</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06031360643911339</v>
+        <v>0.04488498917741274</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>774386172.7247268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2567075559.151072</v>
+        <v>2780094007.981966</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09607353511096925</v>
+        <v>0.07124655556928366</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04152222960875755</v>
+        <v>0.04146571064643313</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1283537768.634591</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4233418532.075507</v>
+        <v>4593128152.94172</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08709517833316888</v>
+        <v>0.1041737391691799</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03442885685341394</v>
+        <v>0.05305263185889135</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2116709251.578296</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1793239700.928398</v>
+        <v>2223083100.699586</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1687438298461597</v>
+        <v>0.1529417104588646</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03701854276934213</v>
+        <v>0.04031140022556554</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>896619821.8770528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2916167018.653121</v>
+        <v>2995654771.793017</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1348645093901165</v>
+        <v>0.1049938937026378</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03920863840117469</v>
+        <v>0.04917557421725819</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1458083515.159598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2156257237.627012</v>
+        <v>1795208927.863496</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0963283625867646</v>
+        <v>0.1116515908817982</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03085182584047066</v>
+        <v>0.03418597657841427</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1078128589.110005</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4713835807.956299</v>
+        <v>4242392780.241838</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404478221517432</v>
+        <v>0.1370508153386992</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02436413688802382</v>
+        <v>0.02795920710440547</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2356918017.759284</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2615605547.654698</v>
+        <v>2960699583.410981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0999474584996457</v>
+        <v>0.1190130607658862</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03062028594391542</v>
+        <v>0.01994805816967813</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1307802732.481863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2850198618.425315</v>
+        <v>3024926227.938835</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1334579321744839</v>
+        <v>0.1253266925413555</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03164354689571828</v>
+        <v>0.02165980775667061</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>95</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1425099284.297678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4153110876.505965</v>
+        <v>3099824591.476194</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1676160521280892</v>
+        <v>0.1466939248312682</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01899685257769458</v>
+        <v>0.0215605885727095</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2076555521.139612</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2445253133.806011</v>
+        <v>2586263565.588904</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167690114439395</v>
+        <v>0.1710912588765013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04121268769439786</v>
+        <v>0.041370612240971</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>120</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1222626582.6377</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_302.xlsx
+++ b/output/fit_clients/fit_round_302.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1860232619.280213</v>
+        <v>2023272030.543077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047038143638049</v>
+        <v>0.09878262071573375</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04414694049381491</v>
+        <v>0.0418675527996014</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2397386134.915168</v>
+        <v>2553034642.904277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1747892815412239</v>
+        <v>0.1203886285420861</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04097438517943846</v>
+        <v>0.03171629368472201</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4216319730.457276</v>
+        <v>4193436609.595594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1003064280781318</v>
+        <v>0.1070509611775318</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03828782919125398</v>
+        <v>0.02384969386022502</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3704212503.133208</v>
+        <v>3908534167.104514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09383359376600056</v>
+        <v>0.1015492871146626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03963650687438653</v>
+        <v>0.03917858138511274</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2320975496.268724</v>
+        <v>2425081493.447456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09658750501508187</v>
+        <v>0.1013708333179446</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05024024285161802</v>
+        <v>0.04024383108584157</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2956801833.519608</v>
+        <v>3140556288.680092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09106481739780682</v>
+        <v>0.08596233849743841</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03467840517988056</v>
+        <v>0.04657169701974721</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3819682837.841633</v>
+        <v>2838514581.294827</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1800509421789107</v>
+        <v>0.1396107776686343</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0218016041517277</v>
+        <v>0.03293507057237211</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1569061693.546185</v>
+        <v>2080830315.654886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.145078170820587</v>
+        <v>0.1469941018909825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02489167654076144</v>
+        <v>0.02442518088877347</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5633578785.997814</v>
+        <v>3689526924.208677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725770188653324</v>
+        <v>0.1635370715298736</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04188616832652587</v>
+        <v>0.03819877368046046</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3117274202.972352</v>
+        <v>3599507690.479978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1734165187540578</v>
+        <v>0.1436941098354406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04151145508694019</v>
+        <v>0.03763190353897574</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2439482271.258443</v>
+        <v>2592339865.305708</v>
       </c>
       <c r="F12" t="n">
-        <v>0.128690497481656</v>
+        <v>0.133147144020068</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03996122266966241</v>
+        <v>0.05283676516206176</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4774825215.761002</v>
+        <v>4421654377.410886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0614546650100865</v>
+        <v>0.07630631993107032</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02429312755410108</v>
+        <v>0.02087842732728101</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3837078948.644758</v>
+        <v>3801097346.476058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1642543488195393</v>
+        <v>0.1235857032005793</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03252755573200757</v>
+        <v>0.02923097069214088</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1262072841.835272</v>
+        <v>1327980344.601526</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06788214335197347</v>
+        <v>0.07830712768517573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04834726433146833</v>
+        <v>0.047848167238931</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2666702014.467408</v>
+        <v>2049342291.472446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07374087937417144</v>
+        <v>0.1128365104296692</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0458014405657047</v>
+        <v>0.0496772863358617</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3771572936.253524</v>
+        <v>3512005638.515683</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1596065007117987</v>
+        <v>0.166413159693962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03476003184211138</v>
+        <v>0.03915713632642043</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2594369402.227712</v>
+        <v>2682702890.259857</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1210706114327546</v>
+        <v>0.1161512808526667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02667553775880967</v>
+        <v>0.03207069312862732</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>916813664.9755445</v>
+        <v>1362122890.801078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1255408353651905</v>
+        <v>0.1854600326123878</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02338184988065817</v>
+        <v>0.02641686526949845</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1764367294.808744</v>
+        <v>2268044084.860785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1503047548177515</v>
+        <v>0.1105999059788178</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02965205862075352</v>
+        <v>0.03120519944725756</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2609761246.081001</v>
+        <v>2724627789.125506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06524051079016248</v>
+        <v>0.08503435359931866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03537860939361858</v>
+        <v>0.03043793616893861</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3041749365.718199</v>
+        <v>3418706301.36591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1080051521719355</v>
+        <v>0.133103868611666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04512919216557455</v>
+        <v>0.03474766118292078</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>976671521.4851521</v>
+        <v>1508557957.543785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1722736569862185</v>
+        <v>0.1742570282821372</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04327073167489582</v>
+        <v>0.05336053730682819</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2506664739.649854</v>
+        <v>3162624454.94364</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1392914555402745</v>
+        <v>0.1281669165349152</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03734301923711246</v>
+        <v>0.02639996694093952</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1288058117.780825</v>
+        <v>1412499687.282747</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07525758648150724</v>
+        <v>0.1119304623664886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02762261477770686</v>
+        <v>0.02327333899137959</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1239369454.250502</v>
+        <v>1061976403.235479</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08632701889176791</v>
+        <v>0.1181781318066726</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02981463835904919</v>
+        <v>0.02576713954076967</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2933088603.301031</v>
+        <v>3596676035.99381</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1217192522039219</v>
+        <v>0.1531231749479965</v>
       </c>
       <c r="G27" t="n">
-        <v>0.022010093251331</v>
+        <v>0.02016312648623673</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2511968902.646972</v>
+        <v>2883339889.582916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1013663961554977</v>
+        <v>0.09998292091974977</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03940577363421082</v>
+        <v>0.04773565570583781</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5193140290.238939</v>
+        <v>5276978803.393687</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1148680264365052</v>
+        <v>0.120800373468259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04430093320687745</v>
+        <v>0.03935013217914336</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1890166979.318762</v>
+        <v>1682454864.544809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1140151495048955</v>
+        <v>0.112481957839418</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03847396990696372</v>
+        <v>0.03009398802662284</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1362443520.731105</v>
+        <v>1426464045.867106</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1124034539381377</v>
+        <v>0.0768197981125253</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03911895751731508</v>
+        <v>0.04063381871194968</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1861471486.158362</v>
+        <v>1677880952.760625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120145171294661</v>
+        <v>0.09571786698030532</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03685234954519809</v>
+        <v>0.02464590814618057</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2412251994.886123</v>
+        <v>2595683469.603408</v>
       </c>
       <c r="F33" t="n">
-        <v>0.168713087537564</v>
+        <v>0.1733485500637899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0429063763436437</v>
+        <v>0.05345424115965784</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1535447031.69884</v>
+        <v>1173631486.93251</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1007011249167507</v>
+        <v>0.09170683491072271</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0184686420813646</v>
+        <v>0.02420311809422715</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>999268809.6680602</v>
+        <v>1257989771.677003</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08014936574812831</v>
+        <v>0.1125506518004551</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03184903191146363</v>
+        <v>0.03773029160488678</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2331122212.518271</v>
+        <v>2801000030.987927</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1283322053777539</v>
+        <v>0.1532529825468108</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02528955413015982</v>
+        <v>0.02440134550435885</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2271208911.053349</v>
+        <v>2896722192.586722</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09343634466068829</v>
+        <v>0.09629629365108179</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02849145733027917</v>
+        <v>0.03409813826200767</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1870679530.837466</v>
+        <v>1472604594.522695</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09126483857565103</v>
+        <v>0.113173864972036</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02838477572334884</v>
+        <v>0.03177207006016444</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1613846776.726832</v>
+        <v>1574974414.066487</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1532384438616963</v>
+        <v>0.1576038812405539</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02792435152881387</v>
+        <v>0.03268624819284113</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1676064331.731711</v>
+        <v>1581099310.277841</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1609075583699609</v>
+        <v>0.1173505634165776</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04866848768703279</v>
+        <v>0.04696449311486438</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2305559542.311857</v>
+        <v>2420959784.510525</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1484546464951594</v>
+        <v>0.1628862450327193</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04434797694360249</v>
+        <v>0.04455172806231011</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4244158041.90517</v>
+        <v>3349529907.79263</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08337948682627508</v>
+        <v>0.09637152384752223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03055401957362363</v>
+        <v>0.03008168392184098</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2238015710.210441</v>
+        <v>2635062711.920221</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2017205687966744</v>
+        <v>0.1805073573700736</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02219853259878049</v>
+        <v>0.01747104408113784</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1964850300.791947</v>
+        <v>1807333777.880454</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0637648818768999</v>
+        <v>0.1000142821597137</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0344737242319231</v>
+        <v>0.03009185333330159</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2218303063.262152</v>
+        <v>2436782327.579826</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1254866158877662</v>
+        <v>0.1742017094063195</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03496533660506183</v>
+        <v>0.04538905677116043</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4895157679.255224</v>
+        <v>4362565275.92897</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1229207423015451</v>
+        <v>0.1466389552508586</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04311890383940852</v>
+        <v>0.04860211505506772</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4035123851.98764</v>
+        <v>5047467310.110601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1961982468760794</v>
+        <v>0.1438038830820193</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0415201981578428</v>
+        <v>0.0420637710682715</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2941110964.936406</v>
+        <v>3105676340.235562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06834191417468408</v>
+        <v>0.07894824646118442</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03893418258867099</v>
+        <v>0.02859974820537002</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1542435092.953098</v>
+        <v>1302727862.324493</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1673464895276006</v>
+        <v>0.1237760946235798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03840791806896795</v>
+        <v>0.04148998561292969</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3881304966.676623</v>
+        <v>4080635710.019033</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1265021762554043</v>
+        <v>0.1315079700037005</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04544969261748843</v>
+        <v>0.05162695224285624</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1095734742.618356</v>
+        <v>1476223713.839481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138063492035745</v>
+        <v>0.138887029924831</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04469176093161193</v>
+        <v>0.04542307166876795</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3447256623.885467</v>
+        <v>4066659335.502127</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1351856998873357</v>
+        <v>0.1024293843310121</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06015843127602915</v>
+        <v>0.06001695826945239</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2838452469.77631</v>
+        <v>2887054161.583831</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2000408132182601</v>
+        <v>0.1851506826471347</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02728614592570869</v>
+        <v>0.02924122520303471</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4652898876.494041</v>
+        <v>4363833450.095183</v>
       </c>
       <c r="F54" t="n">
-        <v>0.155343712460889</v>
+        <v>0.1270624195669729</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03598943033173013</v>
+        <v>0.04981005336057263</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3931893767.467144</v>
+        <v>4989138801.566674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1946914813937768</v>
+        <v>0.1740737116788736</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03106096181607803</v>
+        <v>0.02360075966976336</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1306881362.839036</v>
+        <v>1434633694.203898</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1198225414606334</v>
+        <v>0.1137026028379416</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05156100902582891</v>
+        <v>0.05574499761877067</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3865445707.420457</v>
+        <v>2917852875.979897</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570462170616649</v>
+        <v>0.1133564468943963</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02258737461890312</v>
+        <v>0.02476979003032815</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1569075478.12317</v>
+        <v>1278524825.610084</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1547288194494775</v>
+        <v>0.1491414973601773</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03103174981912334</v>
+        <v>0.03106504514487777</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3635972360.316748</v>
+        <v>3558671167.729508</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1186096030437889</v>
+        <v>0.09809532269985845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04519496264390004</v>
+        <v>0.04915298324587442</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3174883923.912341</v>
+        <v>2504493477.816866</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1542167546683915</v>
+        <v>0.1364199230954126</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02658917398210398</v>
+        <v>0.02317413833463108</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2667577825.915851</v>
+        <v>3245849836.417985</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1122468727756066</v>
+        <v>0.120763874837079</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01995961243767743</v>
+        <v>0.0323455157368136</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1283408923.974874</v>
+        <v>1380694602.849568</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1798852952319172</v>
+        <v>0.1911942708033355</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03356074439173849</v>
+        <v>0.04892074592983699</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3558811733.928316</v>
+        <v>3909855719.251341</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09203955669579507</v>
+        <v>0.09239102768443908</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04082327836028842</v>
+        <v>0.04149735672728301</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4439291997.583429</v>
+        <v>4080951695.435645</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1618820492566318</v>
+        <v>0.1741592525677189</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02294401003303533</v>
+        <v>0.02312426461165694</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4693296340.360011</v>
+        <v>4214369253.120306</v>
       </c>
       <c r="F65" t="n">
-        <v>0.122449417605461</v>
+        <v>0.1501854758920578</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0301222634931235</v>
+        <v>0.02557417313691217</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4206806668.997911</v>
+        <v>4924740247.38003</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1342412521456666</v>
+        <v>0.1223411100489092</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04938919670847328</v>
+        <v>0.03943228628329982</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2819802362.286752</v>
+        <v>3010683744.018223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06490284427683847</v>
+        <v>0.07074572325856981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03771891088467764</v>
+        <v>0.04112486585231093</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5426475585.888135</v>
+        <v>3741331501.302099</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09988672041365405</v>
+        <v>0.0991954949542434</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03114965218337002</v>
+        <v>0.04146556436608643</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2187678828.120784</v>
+        <v>2232158307.891802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1574015976343445</v>
+        <v>0.1458157449867856</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04450469431923051</v>
+        <v>0.05858047083320626</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3638641955.680352</v>
+        <v>3254933758.986165</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07953471718149013</v>
+        <v>0.06722489619929792</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03478469118727252</v>
+        <v>0.03495868916365834</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4483502624.726411</v>
+        <v>3896786692.510443</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1530219804163769</v>
+        <v>0.1697418380867455</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02552383104117329</v>
+        <v>0.03160554846213515</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2273422725.073487</v>
+        <v>2052516795.372777</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07243809856249561</v>
+        <v>0.1036942954526264</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04985159166406331</v>
+        <v>0.04691647729660321</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2188456444.566275</v>
+        <v>2212145298.045019</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08743225464191993</v>
+        <v>0.08001131119157144</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0335445810181124</v>
+        <v>0.03277300809075595</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2631103410.297006</v>
+        <v>2614405289.811196</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1234426113269773</v>
+        <v>0.1753583049424398</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02872373397374998</v>
+        <v>0.02853582430154566</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1974571154.848205</v>
+        <v>2155898397.091001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1436131611703828</v>
+        <v>0.1558933723689472</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0332316090239179</v>
+        <v>0.0249359303554862</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4172995388.742744</v>
+        <v>4749705042.63239</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1000753018417424</v>
+        <v>0.08990430553371227</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02251010714751773</v>
+        <v>0.02626409805952039</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2284356653.051413</v>
+        <v>2135856917.464739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1163756387447</v>
+        <v>0.1281504193838104</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02776394278781093</v>
+        <v>0.02352659985432373</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4371796148.047793</v>
+        <v>3450436175.609545</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09809553567334987</v>
+        <v>0.09148052910404444</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03963646476867346</v>
+        <v>0.03848040494853292</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1586406873.339753</v>
+        <v>1456011132.085269</v>
       </c>
       <c r="F79" t="n">
-        <v>0.169200759578273</v>
+        <v>0.1763207376633976</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03110051689060463</v>
+        <v>0.02813105305892414</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5618269778.445897</v>
+        <v>4282955277.286989</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09580015974027574</v>
+        <v>0.1010941067217147</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03744099897910199</v>
+        <v>0.02460558390983734</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5123642744.315408</v>
+        <v>4489815228.297834</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1134120413854131</v>
+        <v>0.09687097573274077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02362298173157849</v>
+        <v>0.02393018188237412</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4656693354.414957</v>
+        <v>4029615098.29311</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1406359160642453</v>
+        <v>0.2009556554696415</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02125735037046672</v>
+        <v>0.02821530474615593</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2458879330.856824</v>
+        <v>1852680462.279582</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1373310700198655</v>
+        <v>0.1018531901087528</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04327785978376258</v>
+        <v>0.04516254552328894</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1937186644.377211</v>
+        <v>2322127432.633691</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07499270059268336</v>
+        <v>0.08189319442575273</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03704703093992311</v>
+        <v>0.0500875871322064</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3258148179.867956</v>
+        <v>2795056318.81486</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1436525277803373</v>
+        <v>0.1583328001867942</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05344111254645965</v>
+        <v>0.04911321595519193</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1699869476.308748</v>
+        <v>2034421695.670994</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1172368155510483</v>
+        <v>0.1110326878026737</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02474204033450413</v>
+        <v>0.02186740383099054</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076062216.498997</v>
+        <v>1266809064.671314</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1878917963110164</v>
+        <v>0.1789621955813923</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03053277741796276</v>
+        <v>0.03426752128685637</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2626330817.026505</v>
+        <v>2374482235.797279</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1626574134949731</v>
+        <v>0.1305120939623381</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0345492725957366</v>
+        <v>0.02930143184872603</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2689644535.215913</v>
+        <v>2998146511.662372</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1402880514706519</v>
+        <v>0.1328147508025142</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02865351977800742</v>
+        <v>0.02707443586696312</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1918941200.612474</v>
+        <v>1698999057.837686</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128269465109218</v>
+        <v>0.08777051153608251</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05053902760129013</v>
+        <v>0.04148863960829171</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926821291.857329</v>
+        <v>2102170803.173214</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862182634713997</v>
+        <v>0.1898502700065779</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04488498917741274</v>
+        <v>0.05015531734545915</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2780094007.981966</v>
+        <v>2237370639.891881</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07124655556928366</v>
+        <v>0.06866241529127887</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04146571064643313</v>
+        <v>0.04355682043421844</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4593128152.94172</v>
+        <v>3507154099.21981</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1041737391691799</v>
+        <v>0.1286865218775382</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05305263185889135</v>
+        <v>0.05269502619893358</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2223083100.699586</v>
+        <v>1579357973.276863</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1529417104588646</v>
+        <v>0.1264140096878905</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04031140022556554</v>
+        <v>0.03764518119017126</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2995654771.793017</v>
+        <v>2025061580.141749</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1049938937026378</v>
+        <v>0.09129824389412186</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04917557421725819</v>
+        <v>0.0530466960856442</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1795208927.863496</v>
+        <v>1483138274.640596</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1116515908817982</v>
+        <v>0.1097763668486875</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03418597657841427</v>
+        <v>0.03085905589896289</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4242392780.241838</v>
+        <v>3311808731.494174</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1370508153386992</v>
+        <v>0.1545567155663669</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02795920710440547</v>
+        <v>0.02318549191816214</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2960699583.410981</v>
+        <v>3396726084.454539</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1190130607658862</v>
+        <v>0.1167967779965878</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01994805816967813</v>
+        <v>0.02482090630156121</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3024926227.938835</v>
+        <v>2611905303.748137</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1253266925413555</v>
+        <v>0.09529398319297845</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02165980775667061</v>
+        <v>0.02452652376482325</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3099824591.476194</v>
+        <v>4647837426.940697</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1466939248312682</v>
+        <v>0.1439923944723697</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0215605885727095</v>
+        <v>0.02734882307986329</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2586263565.588904</v>
+        <v>3403167546.660665</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1710912588765013</v>
+        <v>0.1342397379585666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.041370612240971</v>
+        <v>0.04874675652043195</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_302.xlsx
+++ b/output/fit_clients/fit_round_302.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2023272030.543077</v>
+        <v>2035690342.84404</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09878262071573375</v>
+        <v>0.08844246206315215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0418675527996014</v>
+        <v>0.03793076250683776</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2553034642.904277</v>
+        <v>2074552339.206388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1203886285420861</v>
+        <v>0.129576572773998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03171629368472201</v>
+        <v>0.03353883831609582</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4193436609.595594</v>
+        <v>3177767483.587806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1070509611775318</v>
+        <v>0.1271251326168488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02384969386022502</v>
+        <v>0.02394881798631036</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>159</v>
+      </c>
+      <c r="J4" t="n">
+        <v>301</v>
+      </c>
+      <c r="K4" t="n">
+        <v>63.3680130651353</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3908534167.104514</v>
+        <v>4082055831.7957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1015492871146626</v>
+        <v>0.1100080153152845</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03917858138511274</v>
+        <v>0.04506859729681731</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2425081493.447456</v>
+        <v>2302286412.20475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013708333179446</v>
+        <v>0.1485229206902091</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04024383108584157</v>
+        <v>0.05467662432445936</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3140556288.680092</v>
+        <v>1965189494.661394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08596233849743841</v>
+        <v>0.09068244932013639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04657169701974721</v>
+        <v>0.03549680505793458</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2838514581.294827</v>
+        <v>2443899608.826593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1396107776686343</v>
+        <v>0.1939931010700867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03293507057237211</v>
+        <v>0.02967330916443211</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>301</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.73844764416509</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2080830315.654886</v>
+        <v>1814325817.822811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1469941018909825</v>
+        <v>0.1375284000092728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02442518088877347</v>
+        <v>0.02998715157724912</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3689526924.208677</v>
+        <v>4201328611.487301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1635370715298736</v>
+        <v>0.1314060892341917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03819877368046046</v>
+        <v>0.04126294896322094</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>267</v>
+      </c>
+      <c r="J10" t="n">
+        <v>302</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82.34747697438117</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3599507690.479978</v>
+        <v>3157098302.755419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1436941098354406</v>
+        <v>0.1260802816483496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03763190353897574</v>
+        <v>0.03965371449289393</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>121</v>
+      </c>
+      <c r="J11" t="n">
+        <v>301</v>
+      </c>
+      <c r="K11" t="n">
+        <v>72.5863562368223</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2592339865.305708</v>
+        <v>2685823347.427029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.133147144020068</v>
+        <v>0.1260282952946314</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05283676516206176</v>
+        <v>0.05301800666172037</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4421654377.410886</v>
+        <v>4088966568.542424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07630631993107032</v>
+        <v>0.06332125222193385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02087842732728101</v>
+        <v>0.03144972241322486</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>155</v>
+      </c>
+      <c r="J13" t="n">
+        <v>302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>83.27743543895099</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3801097346.476058</v>
+        <v>2829220696.24645</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1235857032005793</v>
+        <v>0.141462586061289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02923097069214088</v>
+        <v>0.03566900054751218</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1327980344.601526</v>
+        <v>1784813027.653779</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07830712768517573</v>
+        <v>0.1075978714237981</v>
       </c>
       <c r="G15" t="n">
-        <v>0.047848167238931</v>
+        <v>0.03303172206562208</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2049342291.472446</v>
+        <v>1930814600.609218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1128365104296692</v>
+        <v>0.1077894254703724</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0496772863358617</v>
+        <v>0.04130288049796894</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3512005638.515683</v>
+        <v>3784932877.061238</v>
       </c>
       <c r="F17" t="n">
-        <v>0.166413159693962</v>
+        <v>0.1634701448960093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03915713632642043</v>
+        <v>0.04025756203796838</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>143</v>
+      </c>
+      <c r="J17" t="n">
+        <v>301</v>
+      </c>
+      <c r="K17" t="n">
+        <v>78.7805989044511</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2682702890.259857</v>
+        <v>2798326876.997602</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1161512808526667</v>
+        <v>0.1689346909093956</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03207069312862732</v>
+        <v>0.03088706989542879</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1362122890.801078</v>
+        <v>1072957153.686388</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1854600326123878</v>
+        <v>0.1576950893106777</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02641686526949845</v>
+        <v>0.02171313621250261</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2268044084.860785</v>
+        <v>2740503795.42353</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1105999059788178</v>
+        <v>0.1558374087692362</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03120519944725756</v>
+        <v>0.02245877610194691</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2724627789.125506</v>
+        <v>2433189238.54997</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08503435359931866</v>
+        <v>0.06788534042269151</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03043793616893861</v>
+        <v>0.03867442251880152</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3418706301.36591</v>
+        <v>3647079765.233212</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133103868611666</v>
+        <v>0.09858055026169374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03474766118292078</v>
+        <v>0.04812871999191405</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>82</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1508557957.543785</v>
+        <v>1264864161.636432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1742570282821372</v>
+        <v>0.1861133230343373</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05336053730682819</v>
+        <v>0.05402567987980549</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3162624454.94364</v>
+        <v>3882667477.624981</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281669165349152</v>
+        <v>0.14437551287862</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02639996694093952</v>
+        <v>0.03064253943128963</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>302</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1412499687.282747</v>
+        <v>1482810969.194737</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1119304623664886</v>
+        <v>0.1064158733491914</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02327333899137959</v>
+        <v>0.02308967552580513</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1061976403.235479</v>
+        <v>1043194434.537329</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1181781318066726</v>
+        <v>0.1037801872241423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02576713954076967</v>
+        <v>0.02966682704730619</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3596676035.99381</v>
+        <v>3480908535.708767</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531231749479965</v>
+        <v>0.1120898442123324</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02016312648623673</v>
+        <v>0.02264442051086485</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>301</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.43054270478257</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2883339889.582916</v>
+        <v>2949135723.816528</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09998292091974977</v>
+        <v>0.1424105609792508</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04773565570583781</v>
+        <v>0.04830111094354485</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>63</v>
+      </c>
+      <c r="J28" t="n">
+        <v>301</v>
+      </c>
+      <c r="K28" t="n">
+        <v>63.89091527076403</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1462,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5276978803.393687</v>
+        <v>5510421873.5714</v>
       </c>
       <c r="F29" t="n">
-        <v>0.120800373468259</v>
+        <v>0.115926411295822</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03935013217914336</v>
+        <v>0.02813846648580101</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>283</v>
+      </c>
+      <c r="J29" t="n">
+        <v>302</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1682454864.544809</v>
+        <v>2173870959.910786</v>
       </c>
       <c r="F30" t="n">
-        <v>0.112481957839418</v>
+        <v>0.1202191869451555</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03009398802662284</v>
+        <v>0.0297280802203136</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1426464045.867106</v>
+        <v>1291326916.759284</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0768197981125253</v>
+        <v>0.1027878815563968</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04063381871194968</v>
+        <v>0.03936482258245196</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1677880952.760625</v>
+        <v>1811543568.901485</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09571786698030532</v>
+        <v>0.1035495914830172</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02464590814618057</v>
+        <v>0.03514711658478603</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2595683469.603408</v>
+        <v>2388965992.304101</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1733485500637899</v>
+        <v>0.1474596982554724</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05345424115965784</v>
+        <v>0.05946929089407475</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1173631486.93251</v>
+        <v>1493938225.105225</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09170683491072271</v>
+        <v>0.09200066412722895</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02420311809422715</v>
+        <v>0.0252807944420532</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1257989771.677003</v>
+        <v>1323241777.523481</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1125506518004551</v>
+        <v>0.1081315926644483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03773029160488678</v>
+        <v>0.0434543891619158</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2801000030.987927</v>
+        <v>3028914538.24838</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1532529825468108</v>
+        <v>0.149790759998089</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02440134550435885</v>
+        <v>0.02724918542502863</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2896722192.586722</v>
+        <v>2354724462.520523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09629629365108179</v>
+        <v>0.09185999283825282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03409813826200767</v>
+        <v>0.03237201170390403</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472604594.522695</v>
+        <v>2114486051.799841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.113173864972036</v>
+        <v>0.1068883964455993</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03177207006016444</v>
+        <v>0.03975292974575579</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1574974414.066487</v>
+        <v>1627534811.188164</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1576038812405539</v>
+        <v>0.1173133263514074</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03268624819284113</v>
+        <v>0.02925043854901805</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581099310.277841</v>
+        <v>1531426331.092761</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1173505634165776</v>
+        <v>0.1208845669740475</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04696449311486438</v>
+        <v>0.05752599074700538</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2420959784.510525</v>
+        <v>2449639620.11012</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1628862450327193</v>
+        <v>0.1519983299161478</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04455172806231011</v>
+        <v>0.03098856895791646</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1917,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3349529907.79263</v>
+        <v>4114530043.463513</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09637152384752223</v>
+        <v>0.127445008919039</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03008168392184098</v>
+        <v>0.04487177616300388</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>124</v>
+      </c>
+      <c r="J42" t="n">
+        <v>302</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97.19977821419397</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2635062711.920221</v>
+        <v>3048332604.045706</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1805073573700736</v>
+        <v>0.199536630279662</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01747104408113784</v>
+        <v>0.02236778811486072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1807333777.880454</v>
+        <v>1543801544.84976</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000142821597137</v>
+        <v>0.0630717645352355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03009185333330159</v>
+        <v>0.03420367667427548</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2436782327.579826</v>
+        <v>2482528059.776867</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1742017094063195</v>
+        <v>0.1442918559279716</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04538905677116043</v>
+        <v>0.04702240561394033</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4362565275.92897</v>
+        <v>3473033775.015548</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1466389552508586</v>
+        <v>0.1232469742113026</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04860211505506772</v>
+        <v>0.03908628795619358</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>179</v>
+      </c>
+      <c r="J46" t="n">
+        <v>300</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5047467310.110601</v>
+        <v>3849167479.949766</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1438038830820193</v>
+        <v>0.1292909030220801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0420637710682715</v>
+        <v>0.03756049126279169</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>134</v>
+      </c>
+      <c r="J47" t="n">
+        <v>302</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3105676340.235562</v>
+        <v>3667895891.868839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07894824646118442</v>
+        <v>0.08164821538882198</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02859974820537002</v>
+        <v>0.0253473334819356</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>150</v>
+      </c>
+      <c r="J48" t="n">
+        <v>302</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1302727862.324493</v>
+        <v>1268482677.427361</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237760946235798</v>
+        <v>0.1413728294232903</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04148998561292969</v>
+        <v>0.03688535881488608</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4080635710.019033</v>
+        <v>3311216336.49478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1315079700037005</v>
+        <v>0.1224171043663958</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05162695224285624</v>
+        <v>0.04450248118158005</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1476223713.839481</v>
+        <v>1248340634.407605</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138887029924831</v>
+        <v>0.1652008501236697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04542307166876795</v>
+        <v>0.05187631624483575</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4066659335.502127</v>
+        <v>4025181672.315002</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1024293843310121</v>
+        <v>0.1327053121654942</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06001695826945239</v>
+        <v>0.05703412884318163</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>185</v>
+      </c>
+      <c r="J52" t="n">
+        <v>302</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2887054161.583831</v>
+        <v>3217583186.600616</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1851506826471347</v>
+        <v>0.1375303646668535</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02924122520303471</v>
+        <v>0.02310805353663312</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4363833450.095183</v>
+        <v>3648744321.919753</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1270624195669729</v>
+        <v>0.1175283757363743</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04981005336057263</v>
+        <v>0.03385943274274304</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>158</v>
+      </c>
+      <c r="J54" t="n">
+        <v>302</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4989138801.566674</v>
+        <v>3442851928.804651</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1740737116788736</v>
+        <v>0.2217229949276498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02360075966976336</v>
+        <v>0.02761673718119889</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>139</v>
+      </c>
+      <c r="J55" t="n">
+        <v>301</v>
+      </c>
+      <c r="K55" t="n">
+        <v>75.55202466394573</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1434633694.203898</v>
+        <v>1424107440.437533</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137026028379416</v>
+        <v>0.1211817833776833</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05574499761877067</v>
+        <v>0.04225654965870571</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2917852875.979897</v>
+        <v>4574514152.785761</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1133564468943963</v>
+        <v>0.1789835897805143</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02476979003032815</v>
+        <v>0.0228765704780787</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>124</v>
+      </c>
+      <c r="J57" t="n">
+        <v>302</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1278524825.610084</v>
+        <v>1555188242.738124</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1491414973601773</v>
+        <v>0.1985962615911563</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03106504514487777</v>
+        <v>0.0322035602663507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3558671167.729508</v>
+        <v>4957628776.007601</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09809532269985845</v>
+        <v>0.09164295769314555</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04915298324587442</v>
+        <v>0.04847734284660831</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>146</v>
+      </c>
+      <c r="J59" t="n">
+        <v>301</v>
+      </c>
+      <c r="K59" t="n">
+        <v>78.9206527573298</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2504493477.816866</v>
+        <v>2525792323.104204</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1364199230954126</v>
+        <v>0.1663855421394445</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02317413833463108</v>
+        <v>0.02760677963821888</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>49</v>
+      </c>
+      <c r="J60" t="n">
+        <v>301</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.45055206227993</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3245849836.417985</v>
+        <v>2397634795.575802</v>
       </c>
       <c r="F61" t="n">
-        <v>0.120763874837079</v>
+        <v>0.1617199345220353</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0323455157368136</v>
+        <v>0.03234967601819053</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1380694602.849568</v>
+        <v>1901142734.994179</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1911942708033355</v>
+        <v>0.1410487395204836</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04892074592983699</v>
+        <v>0.03823830333829089</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3909855719.251341</v>
+        <v>3877828401.033617</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09239102768443908</v>
+        <v>0.1005809383010408</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04149735672728301</v>
+        <v>0.04136261790401163</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>147</v>
+      </c>
+      <c r="J63" t="n">
+        <v>301</v>
+      </c>
+      <c r="K63" t="n">
+        <v>79.03731511997393</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4080951695.435645</v>
+        <v>3663601467.73656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1741592525677189</v>
+        <v>0.1338975761579548</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02312426461165694</v>
+        <v>0.02990737639365089</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>148</v>
+      </c>
+      <c r="J64" t="n">
+        <v>302</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4214369253.120306</v>
+        <v>4975276826.233056</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1501854758920578</v>
+        <v>0.132686540272322</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02557417313691217</v>
+        <v>0.02425064640455067</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>240</v>
+      </c>
+      <c r="J65" t="n">
+        <v>302</v>
+      </c>
+      <c r="K65" t="n">
+        <v>82.32079884351752</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4924740247.38003</v>
+        <v>4656286121.498643</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1223411100489092</v>
+        <v>0.09984828937459093</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03943228628329982</v>
+        <v>0.04497298112532494</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>149</v>
+      </c>
+      <c r="J66" t="n">
+        <v>301</v>
+      </c>
+      <c r="K66" t="n">
+        <v>75.49117835274086</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3010683744.018223</v>
+        <v>2374504285.205977</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07074572325856981</v>
+        <v>0.07601791648026458</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04112486585231093</v>
+        <v>0.0439375292400596</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3741331501.302099</v>
+        <v>4488265989.407295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0991954949542434</v>
+        <v>0.1587521966197162</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04146556436608643</v>
+        <v>0.04717623900065072</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>160</v>
+      </c>
+      <c r="J68" t="n">
+        <v>302</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2232158307.891802</v>
+        <v>1808268938.365946</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1458157449867856</v>
+        <v>0.1628054409480713</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05858047083320626</v>
+        <v>0.05938784987433514</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3254933758.986165</v>
+        <v>2281676075.482956</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06722489619929792</v>
+        <v>0.1016341255011446</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03495868916365834</v>
+        <v>0.04190695517669975</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>45</v>
+      </c>
+      <c r="J70" t="n">
+        <v>300</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3896786692.510443</v>
+        <v>4485261992.326447</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1697418380867455</v>
+        <v>0.1306503307641954</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03160554846213515</v>
+        <v>0.02526011987219268</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>225</v>
+      </c>
+      <c r="J71" t="n">
+        <v>302</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2052516795.372777</v>
+        <v>1637924148.209627</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036942954526264</v>
+        <v>0.09648710535424561</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04691647729660321</v>
+        <v>0.05227680891148417</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2212145298.045019</v>
+        <v>2494909458.25592</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08001131119157144</v>
+        <v>0.08782609111335909</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03277300809075595</v>
+        <v>0.0393950761666577</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2614405289.811196</v>
+        <v>3145445197.928499</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1753583049424398</v>
+        <v>0.1674773231307425</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02853582430154566</v>
+        <v>0.0240332676166608</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2155898397.091001</v>
+        <v>2263763880.954595</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1558933723689472</v>
+        <v>0.1463990868306775</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0249359303554862</v>
+        <v>0.0303869338515126</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4749705042.63239</v>
+        <v>5025831344.348531</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08990430553371227</v>
+        <v>0.0891866591462812</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02626409805952039</v>
+        <v>0.03247882978252498</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>142</v>
+      </c>
+      <c r="J76" t="n">
+        <v>301</v>
+      </c>
+      <c r="K76" t="n">
+        <v>77.56089336902512</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2135856917.464739</v>
+        <v>1875180393.676479</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1281504193838104</v>
+        <v>0.1324182303142704</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02352659985432373</v>
+        <v>0.03015714486778105</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3450436175.609545</v>
+        <v>3195162163.877079</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09148052910404444</v>
+        <v>0.1180987982355138</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03848040494853292</v>
+        <v>0.04686054708008853</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>150</v>
+      </c>
+      <c r="J78" t="n">
+        <v>301</v>
+      </c>
+      <c r="K78" t="n">
+        <v>66.46660604514643</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1456011132.085269</v>
+        <v>1198269333.169623</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763207376633976</v>
+        <v>0.1504003969903307</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02813105305892414</v>
+        <v>0.03466464055551557</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4282955277.286989</v>
+        <v>4796167922.934232</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1010941067217147</v>
+        <v>0.08280751861676616</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02460558390983734</v>
+        <v>0.03865711941713381</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>147</v>
+      </c>
+      <c r="J80" t="n">
+        <v>302</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4489815228.297834</v>
+        <v>3596492391.759908</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09687097573274077</v>
+        <v>0.1313470076254539</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02393018188237412</v>
+        <v>0.0283207022955475</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>139</v>
+      </c>
+      <c r="J81" t="n">
+        <v>301</v>
+      </c>
+      <c r="K81" t="n">
+        <v>74.84263936365267</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4029615098.29311</v>
+        <v>4414922522.890725</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2009556554696415</v>
+        <v>0.1944186371931764</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02821530474615593</v>
+        <v>0.0289434982187897</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>220</v>
+      </c>
+      <c r="J82" t="n">
+        <v>302</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1852680462.279582</v>
+        <v>2331522513.445375</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1018531901087528</v>
+        <v>0.1359567315654392</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04516254552328894</v>
+        <v>0.03390390957811466</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2322127432.633691</v>
+        <v>2384021877.615737</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08189319442575273</v>
+        <v>0.1026649346781583</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0500875871322064</v>
+        <v>0.04864053165215264</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2795056318.81486</v>
+        <v>3405499490.479041</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1583328001867942</v>
+        <v>0.1238179647508071</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04911321595519193</v>
+        <v>0.03681764817896337</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2034421695.670994</v>
+        <v>2345560413.661794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1110326878026737</v>
+        <v>0.1492195711589624</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02186740383099054</v>
+        <v>0.0227013959055214</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1266809064.671314</v>
+        <v>1441717744.520122</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1789621955813923</v>
+        <v>0.1718001888595638</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03426752128685637</v>
+        <v>0.0413037094943461</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2374482235.797279</v>
+        <v>2506357690.671522</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1305120939623381</v>
+        <v>0.1539670913195567</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02930143184872603</v>
+        <v>0.02552649767458906</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2998146511.662372</v>
+        <v>3189642210.515177</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1328147508025142</v>
+        <v>0.1315971819738385</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02707443586696312</v>
+        <v>0.02678249789769364</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1698999057.837686</v>
+        <v>1655651796.705752</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08777051153608251</v>
+        <v>0.1265913609252921</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04148863960829171</v>
+        <v>0.03393134907672315</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2102170803.173214</v>
+        <v>1686414024.50309</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1898502700065779</v>
+        <v>0.1240085363307261</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05015531734545915</v>
+        <v>0.05303504043457666</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2237370639.891881</v>
+        <v>2922557554.157753</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06866241529127887</v>
+        <v>0.0753713342781397</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04355682043421844</v>
+        <v>0.03802181588512472</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3507154099.21981</v>
+        <v>3475395089.410184</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1286865218775382</v>
+        <v>0.1336514460061676</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05269502619893358</v>
+        <v>0.03433825726271819</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>135</v>
+      </c>
+      <c r="J93" t="n">
+        <v>300</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1579357973.276863</v>
+        <v>2321374870.532596</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1264140096878905</v>
+        <v>0.1173616507920729</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03764518119017126</v>
+        <v>0.02923180877747687</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2025061580.141749</v>
+        <v>2711764367.967642</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09129824389412186</v>
+        <v>0.1308949903869165</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0530466960856442</v>
+        <v>0.03856900334944717</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1483138274.640596</v>
+        <v>2051063861.443907</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1097763668486875</v>
+        <v>0.1081056832679234</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03085905589896289</v>
+        <v>0.0410181783827883</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3311808731.494174</v>
+        <v>4720206755.845328</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1545567155663669</v>
+        <v>0.1443927264879891</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02318549191816214</v>
+        <v>0.01759784024812489</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>151</v>
+      </c>
+      <c r="J97" t="n">
+        <v>302</v>
+      </c>
+      <c r="K97" t="n">
+        <v>84.89162297039606</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3396726084.454539</v>
+        <v>3346622708.203377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167967779965878</v>
+        <v>0.08937182394480665</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02482090630156121</v>
+        <v>0.0223219296858114</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>299</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2611905303.748137</v>
+        <v>2683570636.388772</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09529398319297845</v>
+        <v>0.1384049818826505</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02452652376482325</v>
+        <v>0.03428174675809643</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4647837426.940697</v>
+        <v>4266810174.55676</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1439923944723697</v>
+        <v>0.1585820238702469</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02734882307986329</v>
+        <v>0.0250965416229779</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>130</v>
+      </c>
+      <c r="J100" t="n">
+        <v>302</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3403167546.660665</v>
+        <v>2216731950.485106</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1342397379585666</v>
+        <v>0.141372365675117</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04874675652043195</v>
+        <v>0.03535271942409893</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="n">
+        <v>37.86685504492023</v>
       </c>
     </row>
   </sheetData>
